--- a/NextLoad/Files/ajuste_salida.xlsx
+++ b/NextLoad/Files/ajuste_salida.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Escritorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\ac\developer\c#\NextLoad\NextLoad\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -59,9 +59,6 @@
     <t>Cost. Unit. (BSD)</t>
   </si>
   <si>
-    <t>US$</t>
-  </si>
-  <si>
     <t>CCS</t>
   </si>
   <si>
@@ -129,6 +126,9 @@
   </si>
   <si>
     <t>20240623018</t>
+  </si>
+  <si>
+    <t>USD</t>
   </si>
 </sst>
 </file>
@@ -460,9 +460,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -507,11 +505,11 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
@@ -519,7 +517,7 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="F2" s="4">
         <v>40</v>
@@ -528,7 +526,7 @@
         <v>4000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -536,11 +534,11 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
@@ -548,7 +546,7 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="F3" s="4">
         <v>40</v>
@@ -557,7 +555,7 @@
         <v>4000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -565,11 +563,11 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
@@ -577,7 +575,7 @@
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="F4" s="4">
         <v>40</v>
@@ -586,7 +584,7 @@
         <v>4000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -594,11 +592,11 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
@@ -606,7 +604,7 @@
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="F5" s="4">
         <v>40</v>
@@ -615,7 +613,7 @@
         <v>4000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -623,11 +621,11 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
       <c r="C6" t="s">
         <v>7</v>
       </c>
@@ -635,7 +633,7 @@
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="F6" s="4">
         <v>40</v>
@@ -644,7 +642,7 @@
         <v>4000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -652,10 +650,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -664,7 +662,7 @@
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="F7" s="4">
         <v>40</v>
@@ -673,7 +671,7 @@
         <v>2000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -681,10 +679,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -693,7 +691,7 @@
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="F8" s="4">
         <v>40</v>
@@ -702,7 +700,7 @@
         <v>2000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -710,10 +708,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
@@ -722,7 +720,7 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="F9" s="4">
         <v>40</v>
@@ -731,7 +729,7 @@
         <v>2000</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -739,10 +737,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
@@ -751,7 +749,7 @@
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="F10" s="4">
         <v>40</v>
@@ -760,7 +758,7 @@
         <v>2000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -768,10 +766,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
@@ -780,7 +778,7 @@
         <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="F11" s="4">
         <v>40</v>
@@ -789,7 +787,7 @@
         <v>2000</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -797,10 +795,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
@@ -809,7 +807,7 @@
         <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="F12" s="4">
         <v>40</v>
@@ -818,7 +816,7 @@
         <v>2000</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -826,10 +824,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
@@ -838,7 +836,7 @@
         <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="F13" s="4">
         <v>40</v>
@@ -847,7 +845,7 @@
         <v>2000</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -855,10 +853,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
@@ -867,7 +865,7 @@
         <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="F14" s="4">
         <v>40</v>
@@ -876,7 +874,7 @@
         <v>3000</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I14">
         <v>5</v>
@@ -884,10 +882,10 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
@@ -896,7 +894,7 @@
         <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="F15" s="4">
         <v>40</v>
@@ -905,7 +903,7 @@
         <v>3000</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I15">
         <v>5</v>
@@ -913,11 +911,11 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
         <v>13</v>
       </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
       <c r="C16" t="s">
         <v>7</v>
       </c>
@@ -925,7 +923,7 @@
         <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="F16" s="4">
         <v>40</v>
@@ -934,7 +932,7 @@
         <v>1500</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I16">
         <v>2</v>
@@ -942,11 +940,11 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
         <v>13</v>
       </c>
-      <c r="B17" t="s">
-        <v>14</v>
-      </c>
       <c r="C17" t="s">
         <v>7</v>
       </c>
@@ -954,7 +952,7 @@
         <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="F17" s="4">
         <v>40</v>
@@ -963,7 +961,7 @@
         <v>1500</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I17">
         <v>2</v>
@@ -971,11 +969,11 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
         <v>13</v>
       </c>
-      <c r="B18" t="s">
-        <v>14</v>
-      </c>
       <c r="C18" t="s">
         <v>7</v>
       </c>
@@ -983,7 +981,7 @@
         <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="F18" s="4">
         <v>40</v>
@@ -992,7 +990,7 @@
         <v>1500</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I18">
         <v>2</v>
@@ -1000,11 +998,11 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
         <v>13</v>
       </c>
-      <c r="B19" t="s">
-        <v>14</v>
-      </c>
       <c r="C19" t="s">
         <v>7</v>
       </c>
@@ -1012,7 +1010,7 @@
         <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="F19" s="4">
         <v>40</v>
@@ -1021,7 +1019,7 @@
         <v>1500</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I19">
         <v>2</v>
